--- a/GATEWAY/A1#111KIRANETXXXX/KIRANET/FIDCARE/5.25/accreditamento-checklist_V8.2.2.xlsx
+++ b/GATEWAY/A1#111KIRANETXXXX/KIRANET/FIDCARE/5.25/accreditamento-checklist_V8.2.2.xlsx
@@ -824,13 +824,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-02-03 12:06:21Z</t>
-  </si>
-  <si>
-    <t>a5f01935137733f7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.869380fef70f904daebe414a78aa4e9979b470b88449625255662442c6b36217.d7eee42edf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-02-04 09:44:03Z</t>
+  </si>
+  <si>
+    <t>81f37aeff8be548f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.869380fef70f904daebe414a78aa4e9979b470b88449625255662442c6b36217.a3758cf2e9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT0</t>
@@ -6454,7 +6454,7 @@
         <v>171</v>
       </c>
       <c r="F55" s="42">
-        <v>45691.0</v>
+        <v>45692.0</v>
       </c>
       <c r="G55" s="50" t="s">
         <v>172</v>
@@ -12903,12 +12903,12 @@
   </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A3:B5"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J10:J56 M10:N56 P10:R56">

--- a/GATEWAY/A1#111KIRANETXXXX/KIRANET/FIDCARE/5.25/accreditamento-checklist_V8.2.2.xlsx
+++ b/GATEWAY/A1#111KIRANETXXXX/KIRANET/FIDCARE/5.25/accreditamento-checklist_V8.2.2.xlsx
@@ -824,13 +824,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-02-04 09:44:03Z</t>
-  </si>
-  <si>
-    <t>81f37aeff8be548f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.869380fef70f904daebe414a78aa4e9979b470b88449625255662442c6b36217.a3758cf2e9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-02-04 17:36:35Z</t>
+  </si>
+  <si>
+    <t>a40373f002aa7431</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.869380fef70f904daebe414a78aa4e9979b470b88449625255662442c6b36217.71f90076fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT0</t>
